--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf13</t>
+  </si>
+  <si>
+    <t>Scn8a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf13</t>
-  </si>
-  <si>
-    <t>Scn8a</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1618966666666667</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H2">
-        <v>0.48569</v>
+        <v>0.794188</v>
       </c>
       <c r="I2">
-        <v>0.05772118441983191</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J2">
-        <v>0.07937737569103211</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.176815</v>
+        <v>0.1169926666666667</v>
       </c>
       <c r="N2">
-        <v>0.5304449999999999</v>
+        <v>0.350978</v>
       </c>
       <c r="O2">
-        <v>0.1330539037058915</v>
+        <v>0.1389115695260365</v>
       </c>
       <c r="P2">
-        <v>0.1509470526417335</v>
+        <v>0.1396447152103714</v>
       </c>
       <c r="Q2">
-        <v>0.02862575911666666</v>
+        <v>0.03097139065155556</v>
       </c>
       <c r="R2">
-        <v>0.25763183205</v>
+        <v>0.278742515864</v>
       </c>
       <c r="S2">
-        <v>0.007680028913586322</v>
+        <v>0.0162448903844031</v>
       </c>
       <c r="T2">
-        <v>0.01198178090699688</v>
+        <v>0.02207465233894856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1618966666666667</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H3">
-        <v>0.48569</v>
+        <v>0.794188</v>
       </c>
       <c r="I3">
-        <v>0.05772118441983191</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J3">
-        <v>0.07937737569103211</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>2.038509</v>
       </c>
       <c r="O3">
-        <v>0.5113283755895395</v>
+        <v>0.8068097848952103</v>
       </c>
       <c r="P3">
-        <v>0.5800920459871381</v>
+        <v>0.8110679551390089</v>
       </c>
       <c r="Q3">
-        <v>0.11000927069</v>
+        <v>0.179884376188</v>
       </c>
       <c r="R3">
-        <v>0.9900834362099998</v>
+        <v>1.618959385692</v>
       </c>
       <c r="S3">
-        <v>0.02951447946649689</v>
+        <v>0.09435165523941434</v>
       </c>
       <c r="T3">
-        <v>0.04604618426970054</v>
+        <v>0.1282113906421989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,51 +664,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1618966666666667</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H4">
-        <v>0.48569</v>
+        <v>0.794188</v>
       </c>
       <c r="I4">
-        <v>0.05772118441983191</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J4">
-        <v>0.07937737569103211</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.4725795</v>
+        <v>0.013265</v>
       </c>
       <c r="N4">
-        <v>0.945159</v>
+        <v>0.02653</v>
       </c>
       <c r="O4">
-        <v>0.355617720704569</v>
+        <v>0.01575023479901482</v>
       </c>
       <c r="P4">
-        <v>0.2689609013711284</v>
+        <v>0.01055557412296826</v>
       </c>
       <c r="Q4">
-        <v>0.07650904578499999</v>
+        <v>0.003511634606666667</v>
       </c>
       <c r="R4">
-        <v>0.4590542747099999</v>
+        <v>0.02106980764</v>
       </c>
       <c r="S4">
-        <v>0.02052667603974871</v>
+        <v>0.001841897249535074</v>
       </c>
       <c r="T4">
-        <v>0.02134941051433469</v>
+        <v>0.001668596113010802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,25 +717,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3472393333333333</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H5">
-        <v>1.041718</v>
+        <v>0.794188</v>
       </c>
       <c r="I5">
-        <v>0.123801595238647</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J5">
-        <v>0.1702502440859614</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.176815</v>
+        <v>0.032449</v>
       </c>
       <c r="N5">
-        <v>0.5304449999999999</v>
+        <v>0.097347</v>
       </c>
       <c r="O5">
-        <v>0.1330539037058915</v>
+        <v>0.03852841077973854</v>
       </c>
       <c r="P5">
-        <v>0.1509470526417335</v>
+        <v>0.03873175552765139</v>
       </c>
       <c r="Q5">
-        <v>0.06139712272333332</v>
+        <v>0.008590202137333332</v>
       </c>
       <c r="R5">
-        <v>0.5525741045099999</v>
+        <v>0.077311819236</v>
       </c>
       <c r="S5">
-        <v>0.0164722855315187</v>
+        <v>0.004505670851878147</v>
       </c>
       <c r="T5">
-        <v>0.02569877255631159</v>
+        <v>0.0061226093408693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +782,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3472393333333333</v>
+        <v>1.7671255</v>
       </c>
       <c r="H6">
-        <v>1.041718</v>
+        <v>3.534251</v>
       </c>
       <c r="I6">
-        <v>0.123801595238647</v>
+        <v>0.7806272272009463</v>
       </c>
       <c r="J6">
-        <v>0.1702502440859614</v>
+        <v>0.7034665260098926</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.679503</v>
+        <v>0.1169926666666667</v>
       </c>
       <c r="N6">
-        <v>2.038509</v>
+        <v>0.350978</v>
       </c>
       <c r="O6">
-        <v>0.5113283755895395</v>
+        <v>0.1389115695260365</v>
       </c>
       <c r="P6">
-        <v>0.5800920459871381</v>
+        <v>0.1396447152103714</v>
       </c>
       <c r="Q6">
-        <v>0.235950168718</v>
+        <v>0.2067407245796667</v>
       </c>
       <c r="R6">
-        <v>2.123551518462</v>
+        <v>1.240444347478</v>
       </c>
       <c r="S6">
-        <v>0.06330326858877103</v>
+        <v>0.1084381533452414</v>
       </c>
       <c r="T6">
-        <v>0.09876081242163502</v>
+        <v>0.09823538268468081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.7671255</v>
+      </c>
+      <c r="H7">
+        <v>3.534251</v>
+      </c>
+      <c r="I7">
+        <v>0.7806272272009463</v>
+      </c>
+      <c r="J7">
+        <v>0.7034665260098926</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3472393333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.041718</v>
-      </c>
-      <c r="I7">
-        <v>0.123801595238647</v>
-      </c>
-      <c r="J7">
-        <v>0.1702502440859614</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4725795</v>
+        <v>0.679503</v>
       </c>
       <c r="N7">
-        <v>0.945159</v>
+        <v>2.038509</v>
       </c>
       <c r="O7">
-        <v>0.355617720704569</v>
+        <v>0.8068097848952103</v>
       </c>
       <c r="P7">
-        <v>0.2689609013711284</v>
+        <v>0.8110679551390089</v>
       </c>
       <c r="Q7">
-        <v>0.164098190527</v>
+        <v>1.2007670786265</v>
       </c>
       <c r="R7">
-        <v>0.9845891431619999</v>
+        <v>7.204602471758999</v>
       </c>
       <c r="S7">
-        <v>0.04402604111835727</v>
+        <v>0.62981768526134</v>
       </c>
       <c r="T7">
-        <v>0.0457906591080148</v>
+        <v>0.5705591567595859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.295669</v>
+        <v>1.7671255</v>
       </c>
       <c r="H8">
-        <v>4.591338</v>
+        <v>3.534251</v>
       </c>
       <c r="I8">
-        <v>0.8184772203415212</v>
+        <v>0.7806272272009463</v>
       </c>
       <c r="J8">
-        <v>0.7503723802230066</v>
+        <v>0.7034665260098926</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.176815</v>
+        <v>0.013265</v>
       </c>
       <c r="N8">
-        <v>0.5304449999999999</v>
+        <v>0.02653</v>
       </c>
       <c r="O8">
-        <v>0.1330539037058915</v>
+        <v>0.01575023479901482</v>
       </c>
       <c r="P8">
-        <v>0.1509470526417335</v>
+        <v>0.01055557412296826</v>
       </c>
       <c r="Q8">
-        <v>0.405908714235</v>
+        <v>0.0234409197575</v>
       </c>
       <c r="R8">
-        <v>2.43545228541</v>
+        <v>0.09376367903000001</v>
       </c>
       <c r="S8">
-        <v>0.1089015892607865</v>
+        <v>0.01229506211891879</v>
       </c>
       <c r="T8">
-        <v>0.113266499178425</v>
+        <v>0.007425493058324401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.295669</v>
+        <v>1.7671255</v>
       </c>
       <c r="H9">
-        <v>4.591338</v>
+        <v>3.534251</v>
       </c>
       <c r="I9">
-        <v>0.8184772203415212</v>
+        <v>0.7806272272009463</v>
       </c>
       <c r="J9">
-        <v>0.7503723802230066</v>
+        <v>0.7034665260098926</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.679503</v>
+        <v>0.032449</v>
       </c>
       <c r="N9">
-        <v>2.038509</v>
+        <v>0.097347</v>
       </c>
       <c r="O9">
-        <v>0.5113283755895395</v>
+        <v>0.03852841077973854</v>
       </c>
       <c r="P9">
-        <v>0.5800920459871381</v>
+        <v>0.03873175552765139</v>
       </c>
       <c r="Q9">
-        <v>1.559913972507</v>
+        <v>0.0573414553495</v>
       </c>
       <c r="R9">
-        <v>9.359483835042001</v>
+        <v>0.344048732097</v>
       </c>
       <c r="S9">
-        <v>0.4185106275342716</v>
+        <v>0.03007632647544635</v>
       </c>
       <c r="T9">
-        <v>0.4352850492958026</v>
+        <v>0.02724649350730137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1027,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.695611</v>
+      </c>
+      <c r="I10">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J10">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1169926666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.350978</v>
+      </c>
+      <c r="O10">
+        <v>0.1389115695260365</v>
+      </c>
+      <c r="P10">
+        <v>0.1396447152103714</v>
+      </c>
+      <c r="Q10">
+        <v>0.02712712861755556</v>
+      </c>
+      <c r="R10">
+        <v>0.244144157558</v>
+      </c>
+      <c r="S10">
+        <v>0.01422852579639207</v>
+      </c>
+      <c r="T10">
+        <v>0.01933468018674211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.695611</v>
+      </c>
+      <c r="I11">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J11">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.679503</v>
+      </c>
+      <c r="N11">
+        <v>2.038509</v>
+      </c>
+      <c r="O11">
+        <v>0.8068097848952103</v>
+      </c>
+      <c r="P11">
+        <v>0.8110679551390089</v>
+      </c>
+      <c r="Q11">
+        <v>0.157556587111</v>
+      </c>
+      <c r="R11">
+        <v>1.418009283999</v>
+      </c>
+      <c r="S11">
+        <v>0.08264044439445603</v>
+      </c>
+      <c r="T11">
+        <v>0.1122974077372242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.695611</v>
+      </c>
+      <c r="I12">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J12">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.013265</v>
+      </c>
+      <c r="N12">
+        <v>0.02653</v>
+      </c>
+      <c r="O12">
+        <v>0.01575023479901482</v>
+      </c>
+      <c r="P12">
+        <v>0.01055557412296826</v>
+      </c>
+      <c r="Q12">
+        <v>0.003075759971666667</v>
+      </c>
+      <c r="R12">
+        <v>0.01845455983</v>
+      </c>
+      <c r="S12">
+        <v>0.001613275430560953</v>
+      </c>
+      <c r="T12">
+        <v>0.00146148495163306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.695611</v>
+      </c>
+      <c r="I13">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J13">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.295669</v>
-      </c>
-      <c r="H10">
-        <v>4.591338</v>
-      </c>
-      <c r="I10">
-        <v>0.8184772203415212</v>
-      </c>
-      <c r="J10">
-        <v>0.7503723802230066</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4725795</v>
-      </c>
-      <c r="N10">
-        <v>0.945159</v>
-      </c>
-      <c r="O10">
-        <v>0.355617720704569</v>
-      </c>
-      <c r="P10">
-        <v>0.2689609013711284</v>
-      </c>
-      <c r="Q10">
-        <v>1.0848861081855</v>
-      </c>
-      <c r="R10">
-        <v>4.339544432742001</v>
-      </c>
-      <c r="S10">
-        <v>0.2910650035464631</v>
-      </c>
-      <c r="T10">
-        <v>0.2018208317487789</v>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.032449</v>
+      </c>
+      <c r="N13">
+        <v>0.097347</v>
+      </c>
+      <c r="O13">
+        <v>0.03852841077973854</v>
+      </c>
+      <c r="P13">
+        <v>0.03873175552765139</v>
+      </c>
+      <c r="Q13">
+        <v>0.007523960446333333</v>
+      </c>
+      <c r="R13">
+        <v>0.067715644017</v>
+      </c>
+      <c r="S13">
+        <v>0.00394641345241405</v>
+      </c>
+      <c r="T13">
+        <v>0.00536265267948072</v>
       </c>
     </row>
   </sheetData>
